--- a/example_output/csv_data/Validation_wind_hindcast_vm_vise.xlsx
+++ b/example_output/csv_data/Validation_wind_hindcast_vm_vise.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,13 +414,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>250420.4503868854</v>
+        <v>461635.5037597694</v>
       </c>
       <c r="C2">
-        <v>310297.9896391208</v>
+        <v>570422.3131675662</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>540604.3005094022</v>
+        <v>998106.167564813</v>
       </c>
       <c r="C3">
-        <v>452957.6902877025</v>
+        <v>929842.9582391835</v>
       </c>
       <c r="D3">
-        <v>275</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,13 +442,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>903910.4402270132</v>
+        <v>1669865.853758219</v>
       </c>
       <c r="C4">
-        <v>602240.6818022119</v>
+        <v>1129693.107350335</v>
       </c>
       <c r="D4">
-        <v>784</v>
+        <v>10731</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,13 +456,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1198314.875982592</v>
+        <v>2295454.443471975</v>
       </c>
       <c r="C5">
-        <v>871609.5858873054</v>
+        <v>1674936.994414544</v>
       </c>
       <c r="D5">
-        <v>1027</v>
+        <v>16113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,13 +470,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1640637.184586691</v>
+        <v>3368102.810046127</v>
       </c>
       <c r="C6">
-        <v>1387252.600809309</v>
+        <v>2721251.474623473</v>
       </c>
       <c r="D6">
-        <v>1262</v>
+        <v>21194</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,13 +484,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2266303.842394819</v>
+        <v>4564424.07145843</v>
       </c>
       <c r="C7">
-        <v>2090136.144739881</v>
+        <v>4180683.818952359</v>
       </c>
       <c r="D7">
-        <v>1361</v>
+        <v>24628</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3728881.430421721</v>
+        <v>6644559.011870958</v>
       </c>
       <c r="C8">
-        <v>3047673.728684323</v>
+        <v>6142909.928941326</v>
       </c>
       <c r="D8">
-        <v>1512</v>
+        <v>27278</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,13 +512,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5728046.915348452</v>
+        <v>11940361.18801878</v>
       </c>
       <c r="C9">
-        <v>4455478.613719739</v>
+        <v>9048364.820376517</v>
       </c>
       <c r="D9">
-        <v>1657</v>
+        <v>29718</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11248916.11362227</v>
+        <v>23832665.25671979</v>
       </c>
       <c r="C10">
-        <v>6253578.123919703</v>
+        <v>12944861.45243133</v>
       </c>
       <c r="D10">
-        <v>1686</v>
+        <v>30542</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,13 +540,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>20153435.66630411</v>
+        <v>42182448.92524172</v>
       </c>
       <c r="C11">
-        <v>8834773.822798656</v>
+        <v>18486603.08051932</v>
       </c>
       <c r="D11">
-        <v>1564</v>
+        <v>30462</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,13 +554,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>30020282.06149322</v>
+        <v>63129508.18573191</v>
       </c>
       <c r="C12">
-        <v>12284921.97212926</v>
+        <v>25742464.09919913</v>
       </c>
       <c r="D12">
-        <v>1566</v>
+        <v>28658</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,13 +568,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>40089180.26164024</v>
+        <v>84096084.82541659</v>
       </c>
       <c r="C13">
-        <v>16178113.17308483</v>
+        <v>33905449.06761905</v>
       </c>
       <c r="D13">
-        <v>1424</v>
+        <v>27046</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,13 +582,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>49301411.33768126</v>
+        <v>102582440.8700309</v>
       </c>
       <c r="C14">
-        <v>20020594.66802048</v>
+        <v>41741512.76187135</v>
       </c>
       <c r="D14">
-        <v>1252</v>
+        <v>23060</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,13 +596,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>60478721.00674891</v>
+        <v>121298025.4097394</v>
       </c>
       <c r="C15">
-        <v>24954538.58424745</v>
+        <v>50325207.37416612</v>
       </c>
       <c r="D15">
-        <v>1202</v>
+        <v>19141</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,13 +610,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>67580911.82871827</v>
+        <v>138413035.9193062</v>
       </c>
       <c r="C16">
-        <v>28665204.85771664</v>
+        <v>58675421.6748619</v>
       </c>
       <c r="D16">
-        <v>893</v>
+        <v>16467</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,13 +624,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>75365592.6938341</v>
+        <v>152651838.743337</v>
       </c>
       <c r="C17">
-        <v>32812237.54756359</v>
+        <v>66592582.53533987</v>
       </c>
       <c r="D17">
-        <v>800</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,13 +638,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>79906777.22226503</v>
+        <v>162780658.0869495</v>
       </c>
       <c r="C18">
-        <v>36086069.1110714</v>
+        <v>73431454.73991139</v>
       </c>
       <c r="D18">
-        <v>675</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,13 +652,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>83147595.66817769</v>
+        <v>167325950.8567572</v>
       </c>
       <c r="C19">
-        <v>39172559.12357979</v>
+        <v>78424777.8377784</v>
       </c>
       <c r="D19">
-        <v>580</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,13 +666,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>87988591.33256695</v>
+        <v>169086868.091033</v>
       </c>
       <c r="C20">
-        <v>42054458.22292291</v>
+        <v>82236858.17180698</v>
       </c>
       <c r="D20">
-        <v>546</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,13 +680,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>86430783.72070509</v>
+        <v>166569973.4239969</v>
       </c>
       <c r="C21">
-        <v>42849771.10846666</v>
+        <v>84585914.9286284</v>
       </c>
       <c r="D21">
-        <v>425</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,13 +694,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>80577429.32001415</v>
+        <v>161665329.9908434</v>
       </c>
       <c r="C22">
-        <v>41974636.86060081</v>
+        <v>85130443.27276315</v>
       </c>
       <c r="D22">
-        <v>276</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,13 +708,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>74891165.74620475</v>
+        <v>154500939.2517117</v>
       </c>
       <c r="C23">
-        <v>40351243.65353564</v>
+        <v>83843816.82979825</v>
       </c>
       <c r="D23">
-        <v>184</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,13 +722,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>69662605.84405127</v>
+        <v>146377645.2352749</v>
       </c>
       <c r="C24">
-        <v>38509273.62967908</v>
+        <v>81533161.26066029</v>
       </c>
       <c r="D24">
-        <v>120</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,13 +736,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>60659012.11657113</v>
+        <v>134196567.8698757</v>
       </c>
       <c r="C25">
-        <v>34801441.18380441</v>
+        <v>76481337.54211544</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,13 +750,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>64141167.07088047</v>
+        <v>126740044.826275</v>
       </c>
       <c r="C26">
-        <v>37163468.00009286</v>
+        <v>73828736.66690078</v>
       </c>
       <c r="D26">
-        <v>68</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,13 +764,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>57141805.14925778</v>
+        <v>113398084.0469796</v>
       </c>
       <c r="C27">
-        <v>34225703.29949851</v>
+        <v>67266530.87729733</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,13 +778,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>48799633.00090001</v>
+        <v>104251555.3332976</v>
       </c>
       <c r="C28">
-        <v>29179708.98368498</v>
+        <v>62922342.78988626</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,13 +792,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>51250928.3630869</v>
+        <v>97418203.49842916</v>
       </c>
       <c r="C29">
-        <v>30998820.50596267</v>
+        <v>59643298.89592546</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,13 +806,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>39115808.84613729</v>
+        <v>88731117.83317125</v>
       </c>
       <c r="C30">
-        <v>24965113.00546947</v>
+        <v>55084165.11562355</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>30692295.26699489</v>
+        <v>75168635.34055755</v>
       </c>
       <c r="C31">
-        <v>19458147.90874893</v>
+        <v>47132175.24311092</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,13 +834,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>67294594.73114239</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>42466323.49790903</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,12 +848,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>26113102.05020307</v>
+        <v>62399656.49910537</v>
       </c>
       <c r="C33">
-        <v>16777890.34462906</v>
+        <v>39938758.67397954</v>
       </c>
       <c r="D33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>53670224.63463458</v>
+      </c>
+      <c r="C34">
+        <v>34602944.15427877</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>52594893.03583379</v>
+      </c>
+      <c r="C35">
+        <v>33678314.10392617</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>41791200.56688298</v>
+      </c>
+      <c r="C36">
+        <v>25347729.84015934</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>43594290.06656639</v>
+      </c>
+      <c r="C37">
+        <v>28902210.7092864</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37688856.46917023</v>
+      </c>
+      <c r="C38">
+        <v>24617886.98385078</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28013518.84622848</v>
+      </c>
+      <c r="C39">
+        <v>18138709.65443568</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>29670415.99749931</v>
+      </c>
+      <c r="C40">
+        <v>19762757.932763</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
     </row>
@@ -864,7 +962,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -886,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>141042.4327394072</v>
+        <v>252027.2269980979</v>
       </c>
       <c r="C2">
-        <v>174677.8518098074</v>
+        <v>311718.8255764844</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -900,13 +998,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>260482.4754953618</v>
+        <v>518124.2938176211</v>
       </c>
       <c r="C3">
-        <v>275722.5226614062</v>
+        <v>534186.5259497723</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -914,13 +1012,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>505528.1398713609</v>
+        <v>879294.2771300504</v>
       </c>
       <c r="C4">
-        <v>342572.2148470575</v>
+        <v>590609.2305334304</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -928,13 +1026,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>722060.2664526238</v>
+        <v>1275655.075403864</v>
       </c>
       <c r="C5">
-        <v>523479.7884307177</v>
+        <v>929607.4457102928</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -942,13 +1040,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>928911.8166407973</v>
+        <v>1766552.274212592</v>
       </c>
       <c r="C6">
-        <v>784972.1488774888</v>
+        <v>1492016.870981542</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -956,13 +1054,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1400281.612783756</v>
+        <v>2602580.200855605</v>
       </c>
       <c r="C7">
-        <v>1263179.558990926</v>
+        <v>2397451.696632587</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -970,13 +1068,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1914091.276238791</v>
+        <v>3871008.80523353</v>
       </c>
       <c r="C8">
-        <v>1801789.661479709</v>
+        <v>3570297.75887019</v>
       </c>
       <c r="D8">
-        <v>168</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -984,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3684035.663684952</v>
+        <v>7834621.10700061</v>
       </c>
       <c r="C9">
-        <v>2557294.335716304</v>
+        <v>5461897.073176403</v>
       </c>
       <c r="D9">
-        <v>159</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -998,13 +1096,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6867208.87836175</v>
+        <v>16057074.49792717</v>
       </c>
       <c r="C10">
-        <v>3645736.372594572</v>
+        <v>8131930.160559947</v>
       </c>
       <c r="D10">
-        <v>163</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1012,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13738838.09246202</v>
+        <v>29088535.35879755</v>
       </c>
       <c r="C11">
-        <v>5774035.356988237</v>
+        <v>12270817.44064272</v>
       </c>
       <c r="D11">
-        <v>184</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1026,13 +1124,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>19556470.8889124</v>
+        <v>42856822.9923564</v>
       </c>
       <c r="C12">
-        <v>7857719.384932021</v>
+        <v>17291246.13035055</v>
       </c>
       <c r="D12">
-        <v>189</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1040,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>26105051.05155723</v>
+        <v>56607333.91903083</v>
       </c>
       <c r="C13">
-        <v>10583304.24229447</v>
+        <v>22824077.58033841</v>
       </c>
       <c r="D13">
-        <v>193</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1054,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>32965490.73866046</v>
+        <v>69200604.74211644</v>
       </c>
       <c r="C14">
-        <v>13454959.36248343</v>
+        <v>28269339.43413804</v>
       </c>
       <c r="D14">
-        <v>161</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1068,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40694937.5910861</v>
+        <v>82181203.22830901</v>
       </c>
       <c r="C15">
-        <v>16986644.03146673</v>
+        <v>34259999.26989409</v>
       </c>
       <c r="D15">
-        <v>184</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1082,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>45436823.90842181</v>
+        <v>93865202.51245466</v>
       </c>
       <c r="C16">
-        <v>19441803.04351698</v>
+        <v>40119082.86800797</v>
       </c>
       <c r="D16">
-        <v>144</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1096,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>52602577.9119975</v>
+        <v>103153282.1890087</v>
       </c>
       <c r="C17">
-        <v>22965382.79675065</v>
+        <v>45628915.30772515</v>
       </c>
       <c r="D17">
-        <v>159</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1110,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>54619922.50404027</v>
+        <v>108978574.9916558</v>
       </c>
       <c r="C18">
-        <v>24797774.20310474</v>
+        <v>50289666.61801144</v>
       </c>
       <c r="D18">
-        <v>135</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1124,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>53827424.90365247</v>
+        <v>110958227.2812297</v>
       </c>
       <c r="C19">
-        <v>25201583.30794283</v>
+        <v>53298377.4019341</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1138,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>59095149.23241764</v>
+        <v>112748526.3693558</v>
       </c>
       <c r="C20">
-        <v>28958710.36153392</v>
+        <v>56415432.0455975</v>
       </c>
       <c r="D20">
-        <v>113</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1152,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>55647544.18435007</v>
+        <v>113006293.4403131</v>
       </c>
       <c r="C21">
-        <v>28349934.84899196</v>
+        <v>58655069.42191487</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1166,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>55378629.39376508</v>
+        <v>111711183.6009797</v>
       </c>
       <c r="C22">
-        <v>29667090.61684479</v>
+        <v>59633775.42096365</v>
       </c>
       <c r="D22">
-        <v>64</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1180,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>52254418.14810961</v>
+        <v>105317235.7803771</v>
       </c>
       <c r="C23">
-        <v>28503412.623051</v>
+        <v>57590086.12605266</v>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1194,13 +1292,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>44891063.05034849</v>
+        <v>100342962.0227931</v>
       </c>
       <c r="C24">
-        <v>25138374.4699387</v>
+        <v>56012278.57548238</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1208,13 +1306,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>38824496.92578367</v>
+        <v>91067182.79503694</v>
       </c>
       <c r="C25">
-        <v>22003022.93634586</v>
+        <v>51746236.35271655</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1222,13 +1320,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>40067012.64761038</v>
+        <v>87401367.27445501</v>
       </c>
       <c r="C26">
-        <v>23205764.98745864</v>
+        <v>50756053.10233699</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1236,13 +1334,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>40239462.38991882</v>
+        <v>73733404.89551947</v>
       </c>
       <c r="C27">
-        <v>23769274.02475514</v>
+        <v>43574956.57096247</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1250,13 +1348,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>31461474.68035353</v>
+        <v>67776918.42459621</v>
       </c>
       <c r="C28">
-        <v>18827978.9213794</v>
+        <v>40559878.37034065</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1264,13 +1362,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>24205239.50964379</v>
+        <v>64370042.10826778</v>
       </c>
       <c r="C29">
-        <v>14708411.34918769</v>
+        <v>39197117.37427295</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1278,13 +1376,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>36014767.60848887</v>
+        <v>64091450.73113074</v>
       </c>
       <c r="C30">
-        <v>22934111.76541638</v>
+        <v>39765152.22922893</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1292,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>30692295.26699489</v>
+        <v>51107093.32594338</v>
       </c>
       <c r="C31">
-        <v>19458147.90874893</v>
+        <v>31802717.21607492</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1306,13 +1404,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>48115719.29214584</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>30216963.70795084</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1320,13 +1418,111 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>26113102.05020307</v>
+        <v>48813960.52507231</v>
       </c>
       <c r="C33">
-        <v>16777890.34462906</v>
+        <v>31178239.59016315</v>
       </c>
       <c r="D33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>41889080.29651194</v>
+      </c>
+      <c r="C34">
+        <v>26901591.12351505</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>36731233.16540676</v>
+      </c>
+      <c r="C35">
+        <v>24116618.75300657</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>26948339.39291348</v>
+      </c>
+      <c r="C36">
+        <v>17258797.8445221</v>
+      </c>
+      <c r="D36">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27897890.81346731</v>
+      </c>
+      <c r="C37">
+        <v>18164112.78284533</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>29196078.27219497</v>
+      </c>
+      <c r="C38">
+        <v>19385214.88639888</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28013518.84622848</v>
+      </c>
+      <c r="C39">
+        <v>18138709.65443568</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1358,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>152939.466678516</v>
+        <v>245241.0759457191</v>
       </c>
       <c r="C2">
-        <v>189422.0502904661</v>
+        <v>295013.5524447158</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1372,13 +1568,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>255384.9072661422</v>
+        <v>512868.8400158258</v>
       </c>
       <c r="C3">
-        <v>237383.4918114039</v>
+        <v>502341.0697155706</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1386,13 +1582,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>485248.0215336579</v>
+        <v>934136.0352308485</v>
       </c>
       <c r="C4">
-        <v>331371.2922096229</v>
+        <v>669954.3125746112</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1400,13 +1596,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>663718.1938575695</v>
+        <v>1249376.516463702</v>
       </c>
       <c r="C5">
-        <v>485135.3901481528</v>
+        <v>910912.3052117917</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1414,13 +1610,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>933953.0909809467</v>
+        <v>1741171.170339924</v>
       </c>
       <c r="C6">
-        <v>792753.7630907546</v>
+        <v>1462481.771440563</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1428,13 +1624,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1242627.814975771</v>
+        <v>2752233.497652405</v>
       </c>
       <c r="C7">
-        <v>1148216.358940616</v>
+        <v>2329252.519209631</v>
       </c>
       <c r="D7">
-        <v>140</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1442,13 +1638,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1781751.108036945</v>
+        <v>3946071.051121427</v>
       </c>
       <c r="C8">
-        <v>1725941.379501057</v>
+        <v>3456797.680966196</v>
       </c>
       <c r="D8">
-        <v>160</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1456,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3082990.754999073</v>
+        <v>7055027.981028276</v>
       </c>
       <c r="C9">
-        <v>2476770.274844149</v>
+        <v>5155066.948124438</v>
       </c>
       <c r="D9">
-        <v>174</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1470,13 +1666,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6823286.617036445</v>
+        <v>14579596.91522081</v>
       </c>
       <c r="C10">
-        <v>3595697.984803012</v>
+        <v>7639928.273467403</v>
       </c>
       <c r="D10">
-        <v>169</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1484,13 +1680,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11480205.94089643</v>
+        <v>26327812.0510476</v>
       </c>
       <c r="C11">
-        <v>4988067.166549908</v>
+        <v>11305085.50418073</v>
       </c>
       <c r="D11">
-        <v>145</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1498,13 +1694,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>19271447.67186238</v>
+        <v>40356760.98671185</v>
       </c>
       <c r="C12">
-        <v>7779793.303861386</v>
+        <v>16262493.99057791</v>
       </c>
       <c r="D12">
-        <v>200</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1512,13 +1708,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>27339491.31472502</v>
+        <v>54259107.07461521</v>
       </c>
       <c r="C13">
-        <v>10935255.63103952</v>
+        <v>21779799.33437533</v>
       </c>
       <c r="D13">
-        <v>220</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1526,13 +1722,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>32522467.84460195</v>
+        <v>65779241.70416239</v>
       </c>
       <c r="C14">
-        <v>13267484.80990689</v>
+        <v>26818668.99892884</v>
       </c>
       <c r="D14">
-        <v>185</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1540,13 +1736,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>36697022.5737905</v>
+        <v>76882845.83121561</v>
       </c>
       <c r="C15">
-        <v>15455246.85468171</v>
+        <v>32286457.68787684</v>
       </c>
       <c r="D15">
-        <v>126</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1554,13 +1750,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>42254781.69749729</v>
+        <v>88277444.67816873</v>
       </c>
       <c r="C16">
-        <v>17892260.99323539</v>
+        <v>38128902.53927094</v>
       </c>
       <c r="D16">
-        <v>111</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1568,13 +1764,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>46648064.00276087</v>
+        <v>95910525.73015524</v>
       </c>
       <c r="C17">
-        <v>20829797.27796619</v>
+        <v>43007625.48565385</v>
       </c>
       <c r="D17">
-        <v>109</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1582,13 +1778,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>44492329.02808937</v>
+        <v>101405409.5557419</v>
       </c>
       <c r="C18">
-        <v>20898215.70032801</v>
+        <v>47569874.70767905</v>
       </c>
       <c r="D18">
-        <v>64</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1596,13 +1792,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>43603869.05707775</v>
+        <v>103006608.7095195</v>
       </c>
       <c r="C19">
-        <v>21629221.9302481</v>
+        <v>50534222.24833444</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1610,13 +1806,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>47064520.52835217</v>
+        <v>104905330.3175604</v>
       </c>
       <c r="C20">
-        <v>24208629.99618829</v>
+        <v>53551335.79423909</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1624,13 +1820,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>47249985.75050002</v>
+        <v>103646481.8297935</v>
       </c>
       <c r="C21">
-        <v>25262742.18976992</v>
+        <v>54697746.56671521</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1638,13 +1834,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>47697156.6787291</v>
+        <v>103325096.1806511</v>
       </c>
       <c r="C22">
-        <v>25736704.19434381</v>
+        <v>55881591.99959041</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1652,13 +1848,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>48421966.10383733</v>
+        <v>100258950.8091434</v>
       </c>
       <c r="C23">
-        <v>26955605.30012431</v>
+        <v>55733519.08699577</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1666,13 +1862,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>42384047.12482589</v>
+        <v>98996088.08268242</v>
       </c>
       <c r="C24">
-        <v>23923355.86921491</v>
+        <v>56100885.52081104</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1680,13 +1876,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>37830843.01775789</v>
+        <v>92435263.23915137</v>
       </c>
       <c r="C25">
-        <v>21713050.16753243</v>
+        <v>53393889.4124706</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1694,13 +1890,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>40230176.3309729</v>
+        <v>91957678.30117421</v>
       </c>
       <c r="C26">
-        <v>23528551.20825327</v>
+        <v>54197664.34123202</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1708,13 +1904,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>39591395.57155455</v>
+        <v>83643484.26644041</v>
       </c>
       <c r="C27">
-        <v>24084844.19242674</v>
+        <v>50090891.46081395</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1722,13 +1918,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>28327213.58470501</v>
+        <v>76393448.74281004</v>
       </c>
       <c r="C28">
-        <v>16964897.4116141</v>
+        <v>46420638.14629612</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1736,13 +1932,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>34804958.16801541</v>
+        <v>71248602.99480623</v>
       </c>
       <c r="C29">
-        <v>21448669.58561757</v>
+        <v>44003359.6800924</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1750,13 +1946,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>64114990.86032903</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>39949918.08006245</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1764,13 +1960,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>54130396.14097019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>34007543.67057756</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1778,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>47952541.14942168</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>30593739.54502934</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1792,13 +1988,111 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>46166455.39482015</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>29454156.50219597</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>40683216.62701613</v>
+      </c>
+      <c r="C34">
+        <v>26598486.86250722</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>36131676.28639614</v>
+      </c>
+      <c r="C35">
+        <v>23427682.64446691</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>26050032.21415152</v>
+      </c>
+      <c r="C36">
+        <v>16915855.61099181</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>39407920.39330523</v>
+      </c>
+      <c r="C37">
+        <v>26412592.67817105</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>33708368.75179146</v>
+      </c>
+      <c r="C38">
+        <v>21805218.18268769</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>29670415.99749931</v>
+      </c>
+      <c r="C40">
+        <v>19762757.932763</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +2102,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>201787.8286970609</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>249613.8118740497</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1844,13 +2138,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>267354.7352470527</v>
+        <v>526396.0802797558</v>
       </c>
       <c r="C3">
-        <v>248453.861757598</v>
+        <v>511625.3797561086</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1858,13 +2152,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>463424.7581356231</v>
+        <v>883600.8564422895</v>
       </c>
       <c r="C4">
-        <v>314733.6111126968</v>
+        <v>593300.0761524177</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1872,13 +2166,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>664197.6149523306</v>
+        <v>1243910.102394016</v>
       </c>
       <c r="C5">
-        <v>470979.4975402242</v>
+        <v>902559.5377689503</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1886,13 +2180,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>900292.9080916733</v>
+        <v>1732503.391055591</v>
       </c>
       <c r="C6">
-        <v>745114.059994667</v>
+        <v>1459946.894134548</v>
       </c>
       <c r="D6">
-        <v>138</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1900,13 +2194,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1221643.515424156</v>
+        <v>2437429.502296672</v>
       </c>
       <c r="C7">
-        <v>1122840.370818389</v>
+        <v>2246947.652488566</v>
       </c>
       <c r="D7">
-        <v>133</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1914,13 +2208,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1761255.649050531</v>
+        <v>3597857.799406699</v>
       </c>
       <c r="C8">
-        <v>1701378.004983474</v>
+        <v>3454668.140770354</v>
       </c>
       <c r="D8">
-        <v>175</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1928,13 +2222,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3336853.218650508</v>
+        <v>6487100.152404888</v>
       </c>
       <c r="C9">
-        <v>2661462.969709808</v>
+        <v>5137904.306125268</v>
       </c>
       <c r="D9">
-        <v>215</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1942,13 +2236,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6348518.463264571</v>
+        <v>13419841.50622565</v>
       </c>
       <c r="C10">
-        <v>3511583.712532053</v>
+        <v>7379049.579411233</v>
       </c>
       <c r="D10">
-        <v>160</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1956,13 +2250,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12389362.04692169</v>
+        <v>25012837.05791856</v>
       </c>
       <c r="C11">
-        <v>5330416.663115102</v>
+        <v>10844745.54725358</v>
       </c>
       <c r="D11">
-        <v>162</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1970,13 +2264,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18532696.8994332</v>
+        <v>38307027.86649042</v>
       </c>
       <c r="C12">
-        <v>7461020.065780781</v>
+        <v>15441353.58755748</v>
       </c>
       <c r="D12">
-        <v>169</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1984,13 +2278,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24843603.20765633</v>
+        <v>51502919.41296601</v>
       </c>
       <c r="C13">
-        <v>9924837.934680814</v>
+        <v>20581459.10652079</v>
       </c>
       <c r="D13">
-        <v>164</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1998,13 +2292,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>29126222.43703604</v>
+        <v>62844155.21555101</v>
       </c>
       <c r="C14">
-        <v>11911803.80595195</v>
+        <v>25581314.58147232</v>
       </c>
       <c r="D14">
-        <v>107</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2012,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>38818886.05122951</v>
+        <v>74275780.61153066</v>
       </c>
       <c r="C15">
-        <v>16293788.36166807</v>
+        <v>31215074.39909064</v>
       </c>
       <c r="D15">
-        <v>157</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2026,13 +2320,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>42177253.2265671</v>
+        <v>84201576.5085196</v>
       </c>
       <c r="C16">
-        <v>18732291.97998704</v>
+        <v>36820035.96442818</v>
       </c>
       <c r="D16">
-        <v>118</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2040,13 +2334,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>46096171.70455004</v>
+        <v>91146301.50913809</v>
       </c>
       <c r="C17">
-        <v>20997193.27900976</v>
+        <v>41812677.6541528</v>
       </c>
       <c r="D17">
-        <v>113</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2054,13 +2348,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>46719559.91503482</v>
+        <v>96427054.83214475</v>
       </c>
       <c r="C18">
-        <v>22660792.28980082</v>
+        <v>46226329.84015518</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2068,13 +2362,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>49168376.27907301</v>
+        <v>97389099.65895304</v>
       </c>
       <c r="C19">
-        <v>24780053.97879756</v>
+        <v>48907337.91946173</v>
       </c>
       <c r="D19">
-        <v>74</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2082,13 +2376,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>50424257.72219736</v>
+        <v>99851875.97730574</v>
       </c>
       <c r="C20">
-        <v>26330770.42139432</v>
+        <v>51856856.39802664</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2096,13 +2390,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>54760078.16052161</v>
+        <v>99001333.48414628</v>
       </c>
       <c r="C21">
-        <v>28982321.38051611</v>
+        <v>52993164.52716092</v>
       </c>
       <c r="D21">
-        <v>73</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2110,13 +2404,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51331469.05021068</v>
+        <v>97134767.87472585</v>
       </c>
       <c r="C22">
-        <v>28472950.85638088</v>
+        <v>53537948.96393214</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2124,13 +2418,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>43784412.20434634</v>
+        <v>92634137.72842211</v>
       </c>
       <c r="C23">
-        <v>24981028.36841836</v>
+        <v>52270786.90733138</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2138,13 +2432,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>42769686.36713493</v>
+        <v>88703068.62748113</v>
       </c>
       <c r="C24">
-        <v>25253392.90941191</v>
+        <v>51321590.59736343</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2152,13 +2446,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>41044252.52417214</v>
+        <v>83865358.58495384</v>
       </c>
       <c r="C25">
-        <v>24791726.60141857</v>
+        <v>49467612.87063467</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2166,13 +2460,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>40801749.69289514</v>
+        <v>77493731.98439571</v>
       </c>
       <c r="C26">
-        <v>24846017.98635514</v>
+        <v>46468681.32578564</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2180,13 +2474,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>40993439.00963576</v>
+        <v>74057518.51928513</v>
       </c>
       <c r="C27">
-        <v>25274993.02069484</v>
+        <v>45254167.65916312</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2194,13 +2488,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>32982519.80701383</v>
+        <v>67740942.38710897</v>
       </c>
       <c r="C28">
-        <v>20827001.77391733</v>
+        <v>42215450.2002266</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2208,13 +2502,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>28199588.570174</v>
+        <v>63020388.12558006</v>
       </c>
       <c r="C29">
-        <v>18061202.5494307</v>
+        <v>39799514.3301314</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2222,13 +2516,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>28488313.62945828</v>
+        <v>57466807.31707413</v>
       </c>
       <c r="C30">
-        <v>18285693.66841415</v>
+        <v>37160619.4241396</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2236,13 +2530,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>51724576.6093924</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>33787937.58056201</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2250,13 +2544,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>43855913.52719535</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>28076594.26199782</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2264,12 +2558,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>39908765.39748948</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>26027663.04845668</v>
       </c>
       <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>25741252.80848249</v>
+      </c>
+      <c r="C34">
+        <v>16467358.99906971</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>31081406.31085521</v>
+      </c>
+      <c r="C35">
+        <v>20638190.60051896</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2672,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2302,13 +2694,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>138340.2456964388</v>
+        <v>235867.4743254032</v>
       </c>
       <c r="C2">
-        <v>171333.5037754251</v>
+        <v>292314.5927873631</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2316,13 +2708,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>310220.9019511027</v>
+        <v>518003.6469650176</v>
       </c>
       <c r="C3">
-        <v>287282.8796987237</v>
+        <v>524149.8180789524</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2330,13 +2722,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>493300.5337814128</v>
+        <v>890872.6822251395</v>
       </c>
       <c r="C4">
-        <v>327158.1328937768</v>
+        <v>601486.3175501175</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2344,13 +2736,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>686558.8926956181</v>
+        <v>1248928.662191293</v>
       </c>
       <c r="C5">
-        <v>501206.3257838517</v>
+        <v>904752.4640153825</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2358,13 +2750,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>904695.5069398744</v>
+        <v>1723956.337102508</v>
       </c>
       <c r="C6">
-        <v>762954.8215671753</v>
+        <v>1439509.109599499</v>
       </c>
       <c r="D6">
-        <v>122</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2372,13 +2764,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1200593.137194173</v>
+        <v>2410820.175058193</v>
       </c>
       <c r="C7">
-        <v>1099539.329409679</v>
+        <v>2219992.552930692</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2386,13 +2778,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1640442.213392303</v>
+        <v>3479986.360195784</v>
       </c>
       <c r="C8">
-        <v>1587140.149433216</v>
+        <v>3340197.666498518</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2400,13 +2792,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2895393.626338786</v>
+        <v>6401692.837725287</v>
       </c>
       <c r="C9">
-        <v>2438593.676652088</v>
+        <v>4994418.170333483</v>
       </c>
       <c r="D9">
-        <v>155</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2414,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6466537.177775384</v>
+        <v>13408468.76217002</v>
       </c>
       <c r="C10">
-        <v>3501102.993107591</v>
+        <v>7319263.035244413</v>
       </c>
       <c r="D10">
-        <v>143</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2428,13 +2820,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11738669.65822535</v>
+        <v>24794338.85180782</v>
       </c>
       <c r="C11">
-        <v>5082414.801611301</v>
+        <v>10676364.0538743</v>
       </c>
       <c r="D11">
-        <v>146</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2442,13 +2834,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18625426.22444573</v>
+        <v>39106112.54191858</v>
       </c>
       <c r="C12">
-        <v>7524642.076196531</v>
+        <v>15672633.22230083</v>
       </c>
       <c r="D12">
-        <v>167</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2456,13 +2848,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24604113.87924261</v>
+        <v>52670102.69027456</v>
       </c>
       <c r="C13">
-        <v>9818403.105676381</v>
+        <v>21030393.93480657</v>
       </c>
       <c r="D13">
-        <v>126</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2470,13 +2862,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>29811069.019617</v>
+        <v>63582843.74717197</v>
       </c>
       <c r="C14">
-        <v>12173621.56638955</v>
+        <v>26072235.45550619</v>
       </c>
       <c r="D14">
-        <v>118</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2484,13 +2876,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>35275148.89248772</v>
+        <v>73817718.78063859</v>
       </c>
       <c r="C15">
-        <v>15012192.71745433</v>
+        <v>31518602.77665206</v>
       </c>
       <c r="D15">
-        <v>104</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2498,13 +2890,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>40630017.74655548</v>
+        <v>82588264.92650777</v>
       </c>
       <c r="C16">
-        <v>18119732.73076272</v>
+        <v>36756971.04932459</v>
       </c>
       <c r="D16">
-        <v>96</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2512,13 +2904,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>43611106.01368041</v>
+        <v>89638399.92305347</v>
       </c>
       <c r="C17">
-        <v>20459705.55561667</v>
+        <v>41977637.52236736</v>
       </c>
       <c r="D17">
-        <v>84</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2526,13 +2918,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>49988932.06602693</v>
+        <v>93866238.80451605</v>
       </c>
       <c r="C18">
-        <v>24646548.46500704</v>
+        <v>46214842.6923968</v>
       </c>
       <c r="D18">
-        <v>97</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2540,13 +2932,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>55381045.2736697</v>
+        <v>96612290.19520918</v>
       </c>
       <c r="C19">
-        <v>28586444.35309897</v>
+        <v>49779576.00754613</v>
       </c>
       <c r="D19">
-        <v>113</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2554,13 +2946,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>51071216.36266036</v>
+        <v>93016581.73816442</v>
       </c>
       <c r="C20">
-        <v>27416112.61354331</v>
+        <v>49717576.75748102</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2568,13 +2960,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>46345954.66418154</v>
+        <v>93621868.63650165</v>
       </c>
       <c r="C21">
-        <v>25472879.16909342</v>
+        <v>51844769.46880159</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2582,13 +2974,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>40318191.73784874</v>
+        <v>89993256.52489448</v>
       </c>
       <c r="C22">
-        <v>22959765.62255006</v>
+        <v>51157666.56776117</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2596,13 +2988,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>42274279.88212843</v>
+        <v>88493578.9197007</v>
       </c>
       <c r="C23">
-        <v>24225157.57154743</v>
+        <v>51686552.90475059</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2610,13 +3002,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>38684522.04378404</v>
+        <v>84327516.94335242</v>
       </c>
       <c r="C24">
-        <v>22995440.56429695</v>
+        <v>49936298.36269448</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2624,13 +3016,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>33733643.02545281</v>
+        <v>76162244.56605411</v>
       </c>
       <c r="C25">
-        <v>20729370.4934995</v>
+        <v>46356760.70924191</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2638,13 +3030,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>33006838.68515788</v>
+        <v>67829103.8943364</v>
       </c>
       <c r="C26">
-        <v>20299164.30011034</v>
+        <v>41888725.16258149</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2652,13 +3044,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>60279926.74905325</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>37764516.36945508</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2666,13 +3058,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>23187362.43336745</v>
+        <v>58845790.22653526</v>
       </c>
       <c r="C28">
-        <v>14491170.80278792</v>
+        <v>36932893.40405873</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2680,13 +3072,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>44105001.06022961</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>28107396.55068715</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2694,13 +3086,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>38934196.89117981</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>24927025.26708349</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2708,13 +3100,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>35127148.31489609</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>23029820.06995243</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2722,13 +3114,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>34624472.88898845</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>22367883.7441257</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2736,12 +3128,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>32102587.94110876</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>20822413.6839248</v>
       </c>
       <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -2752,7 +3242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2774,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>171722.3304812525</v>
+        <v>242427.6766761412</v>
       </c>
       <c r="C2">
-        <v>212792.1859533886</v>
+        <v>300484.6004661859</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2788,13 +3278,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>239379.1421432088</v>
+        <v>519828.2382929621</v>
       </c>
       <c r="C3">
-        <v>196922.3371951558</v>
+        <v>479495.853923214</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2802,13 +3292,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>485624.4692412635</v>
+        <v>883221.4230184797</v>
       </c>
       <c r="C4">
-        <v>329293.4238503302</v>
+        <v>592433.0233523462</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2816,13 +3306,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>665529.6931300659</v>
+        <v>1218146.283457028</v>
       </c>
       <c r="C5">
-        <v>478953.5426200898</v>
+        <v>888165.5612298022</v>
       </c>
       <c r="D5">
-        <v>87</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2830,13 +3320,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>927758.9443911396</v>
+        <v>1731193.748190548</v>
       </c>
       <c r="C6">
-        <v>778361.8795659041</v>
+        <v>1458750.790369261</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2844,13 +3334,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1195731.290687371</v>
+        <v>2377842.210345474</v>
       </c>
       <c r="C7">
-        <v>1108606.944499088</v>
+        <v>2205752.451771323</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2858,13 +3348,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1648708.994015081</v>
+        <v>3275913.558575574</v>
       </c>
       <c r="C8">
-        <v>1596529.715994983</v>
+        <v>3167542.526556384</v>
       </c>
       <c r="D8">
-        <v>112</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2872,13 +3362,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3126380.994561031</v>
+        <v>6010867.922962464</v>
       </c>
       <c r="C9">
-        <v>2330074.847467143</v>
+        <v>4719331.11885897</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2886,13 +3376,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6009701.398986637</v>
+        <v>12815296.07847588</v>
       </c>
       <c r="C10">
-        <v>3287940.220715066</v>
+        <v>6807844.644084616</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2900,13 +3390,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11681018.15188864</v>
+        <v>22858420.46262497</v>
       </c>
       <c r="C11">
-        <v>4981853.008209818</v>
+        <v>9768933.151800981</v>
       </c>
       <c r="D11">
-        <v>115</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2914,13 +3404,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15901386.32237906</v>
+        <v>33765312.08907796</v>
       </c>
       <c r="C12">
-        <v>6421685.332678979</v>
+        <v>13538966.21193858</v>
       </c>
       <c r="D12">
-        <v>92</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2928,13 +3418,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>21786072.48402603</v>
+        <v>44657024.65791449</v>
       </c>
       <c r="C13">
-        <v>8786493.728138864</v>
+        <v>17929403.92692575</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2942,13 +3432,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>24510421.11135282</v>
+        <v>52261537.86020966</v>
       </c>
       <c r="C14">
-        <v>10117555.87043176</v>
+        <v>21446933.2515143</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2956,13 +3446,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>30702491.61068771</v>
+        <v>62077225.83318603</v>
       </c>
       <c r="C15">
-        <v>13016669.91714181</v>
+        <v>26357330.66036649</v>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>948</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2970,13 +3460,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>36019437.58082552</v>
+        <v>66605345.57439101</v>
       </c>
       <c r="C16">
-        <v>15708782.03733232</v>
+        <v>29451226.41810828</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2984,13 +3474,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>38102684.89346668</v>
+        <v>70498379.02660608</v>
       </c>
       <c r="C17">
-        <v>17774253.36113671</v>
+        <v>32566692.68720339</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2998,13 +3488,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>38053006.09079739</v>
+        <v>71885496.23528831</v>
       </c>
       <c r="C18">
-        <v>18416254.96538704</v>
+        <v>34709571.02296653</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3012,13 +3502,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>36493569.84972676</v>
+        <v>70868737.05475427</v>
       </c>
       <c r="C19">
-        <v>18820635.58335897</v>
+        <v>36052937.05286906</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3026,13 +3516,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>32289009.08954969</v>
+        <v>68821574.39367022</v>
       </c>
       <c r="C20">
-        <v>16370907.99029431</v>
+        <v>36079426.48835827</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3040,13 +3530,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>29469384.97377599</v>
+        <v>64039497.74004611</v>
       </c>
       <c r="C21">
-        <v>15458229.82398368</v>
+        <v>35233254.25311843</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3054,13 +3544,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>30543165.36118858</v>
+        <v>60953929.5442307</v>
       </c>
       <c r="C22">
-        <v>17037599.00695413</v>
+        <v>34449109.28071805</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3068,13 +3558,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>26451243.96413042</v>
+        <v>54140807.08839842</v>
       </c>
       <c r="C23">
-        <v>14294983.10354064</v>
+        <v>30966812.77609175</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3082,13 +3572,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>25467728.27421744</v>
+        <v>48579407.1179663</v>
       </c>
       <c r="C24">
-        <v>14160552.3527072</v>
+        <v>28700262.81438567</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3096,13 +3586,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>23758653.83941518</v>
+        <v>41510736.56906631</v>
       </c>
       <c r="C25">
-        <v>12933580.93607685</v>
+        <v>24870364.24233369</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3110,13 +3600,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>22707330.90341957</v>
+        <v>34751156.57955905</v>
       </c>
       <c r="C26">
-        <v>14410581.56783317</v>
+        <v>20952881.41853583</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3124,13 +3614,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>32764970.30286196</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>20064809.03826791</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3138,13 +3628,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>29168480.6283499</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>17969236.30506316</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3214,6 +3704,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -3224,7 +3812,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3246,13 +3834,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>173007.0123897701</v>
+        <v>254693.356525548</v>
       </c>
       <c r="C2">
-        <v>214290.5532383394</v>
+        <v>315484.9992561771</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3260,13 +3848,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>301583.6503362856</v>
+        <v>574587.348505121</v>
       </c>
       <c r="C3">
-        <v>255226.8211882827</v>
+        <v>503074.4272696011</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3274,13 +3862,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>469931.2938386488</v>
+        <v>935638.7255076148</v>
       </c>
       <c r="C4">
-        <v>309731.7767890819</v>
+        <v>628365.3603829008</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3288,13 +3876,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>584499.5686181561</v>
+        <v>1231085.267484156</v>
       </c>
       <c r="C5">
-        <v>436536.6627033324</v>
+        <v>907138.634066821</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3302,13 +3890,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>789543.8156540836</v>
+        <v>1700116.961254079</v>
       </c>
       <c r="C6">
-        <v>670865.6968498393</v>
+        <v>1447062.803624613</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3316,13 +3904,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1222589.228107897</v>
+        <v>2357715.641546952</v>
       </c>
       <c r="C7">
-        <v>1144481.297392281</v>
+        <v>2187938.33848642</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3330,13 +3918,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1555316.694735983</v>
+        <v>3272098.515585124</v>
       </c>
       <c r="C8">
-        <v>1502011.802014869</v>
+        <v>3157933.507831218</v>
       </c>
       <c r="D8">
-        <v>75</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3344,13 +3932,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2499893.190560997</v>
+        <v>5675977.743891295</v>
       </c>
       <c r="C9">
-        <v>2102668.478750126</v>
+        <v>4490044.884052332</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3358,13 +3946,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5317138.090510368</v>
+        <v>10713072.97239871</v>
       </c>
       <c r="C10">
-        <v>2999624.078022229</v>
+        <v>6037874.805369876</v>
       </c>
       <c r="D10">
-        <v>79</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3372,13 +3960,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8261296.651815749</v>
+        <v>18514237.11195869</v>
       </c>
       <c r="C11">
-        <v>3588407.964686847</v>
+        <v>8184457.049141432</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3386,13 +3974,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11911034.44477424</v>
+        <v>26850060.98219733</v>
       </c>
       <c r="C12">
-        <v>4902919.226358995</v>
+        <v>10994656.68383594</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3400,13 +3988,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>13161177.62638775</v>
+        <v>34756793.02759337</v>
       </c>
       <c r="C13">
-        <v>5397359.549739745</v>
+        <v>13936618.08454135</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>863</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3414,13 +4002,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>17476035.42919111</v>
+        <v>40971689.40648262</v>
       </c>
       <c r="C14">
-        <v>6943502.676559068</v>
+        <v>16485208.20887972</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3428,13 +4016,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>22661402.08266522</v>
+        <v>49223836.49648769</v>
       </c>
       <c r="C15">
-        <v>8856829.840711189</v>
+        <v>20028464.2577281</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3442,13 +4030,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>24107166.34071553</v>
+        <v>54255717.86578292</v>
       </c>
       <c r="C16">
-        <v>9887935.784285063</v>
+        <v>22377746.11464423</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3456,13 +4044,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>19962599.17609852</v>
+        <v>56807385.31933775</v>
       </c>
       <c r="C17">
-        <v>8949682.84383804</v>
+        <v>24314609.67478734</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3470,13 +4058,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>21891827.95189316</v>
+        <v>57807680.5859675</v>
       </c>
       <c r="C18">
-        <v>9686355.013659962</v>
+        <v>25712446.59370662</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3484,13 +4072,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>30534828.19246534</v>
+        <v>55523996.4193128</v>
       </c>
       <c r="C19">
-        <v>14573580.84645827</v>
+        <v>25889505.60239979</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3498,13 +4086,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>34454984.51580764</v>
+        <v>58892609.99138328</v>
       </c>
       <c r="C20">
-        <v>16606246.73709223</v>
+        <v>28467490.17349026</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3512,13 +4100,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>27034157.09103642</v>
+        <v>56257140.55130045</v>
       </c>
       <c r="C21">
-        <v>13284019.58745703</v>
+        <v>28306377.132993</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3526,13 +4114,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>32674628.23897072</v>
+        <v>51149550.86615759</v>
       </c>
       <c r="C22">
-        <v>16006790.8558918</v>
+        <v>25924257.41965324</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3540,13 +4128,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>31445843.20178345</v>
+        <v>44746498.86239743</v>
       </c>
       <c r="C23">
-        <v>16819198.24892669</v>
+        <v>23502099.04554826</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3554,13 +4142,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>28296016.43812343</v>
+        <v>42174939.98751733</v>
       </c>
       <c r="C24">
-        <v>15889125.96662257</v>
+        <v>22865542.76051515</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3568,13 +4156,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>21667992.56348679</v>
+        <v>36484190.93173757</v>
       </c>
       <c r="C25">
-        <v>12201823.35111131</v>
+        <v>19346979.4053854</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3582,13 +4170,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>35212732.87409007</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>19720308.32583728</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3596,13 +4184,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>23806235.19962325</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>11335051.09037513</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3686,6 +4274,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -3696,7 +4382,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3718,13 +4404,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>126608.3160237534</v>
+        <v>295382.214244534</v>
       </c>
       <c r="C2">
-        <v>156816.1395826086</v>
+        <v>365751.3503729802</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3732,13 +4418,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>269992.4857402372</v>
+        <v>567864.5153369006</v>
       </c>
       <c r="C3">
-        <v>228555.1644113509</v>
+        <v>470729.1240897581</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3746,13 +4432,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>454430.5197503651</v>
+        <v>923643.7677464881</v>
       </c>
       <c r="C4">
-        <v>299330.1166521464</v>
+        <v>619818.0373937767</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3760,13 +4446,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>598999.9415010263</v>
+        <v>1220918.264746402</v>
       </c>
       <c r="C5">
-        <v>439618.3943446517</v>
+        <v>902984.3353916998</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3774,13 +4460,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>827960.6324994183</v>
+        <v>1700797.006411074</v>
       </c>
       <c r="C6">
-        <v>714370.8399081734</v>
+        <v>1447122.097149325</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3788,13 +4474,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1098948.621221979</v>
+        <v>2341433.459114726</v>
       </c>
       <c r="C7">
-        <v>1022538.153386408</v>
+        <v>2172829.946845978</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3802,13 +4488,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1510922.825496253</v>
+        <v>3277720.488761257</v>
       </c>
       <c r="C8">
-        <v>1403380.011259656</v>
+        <v>3135377.718291826</v>
       </c>
       <c r="D8">
-        <v>78</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3816,13 +4502,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2583627.527689421</v>
+        <v>5797731.932955812</v>
       </c>
       <c r="C9">
-        <v>2041861.883247307</v>
+        <v>4453039.543414875</v>
       </c>
       <c r="D9">
-        <v>67</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3830,13 +4516,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5442580.694231399</v>
+        <v>10926443.08756478</v>
       </c>
       <c r="C10">
-        <v>2994341.616809809</v>
+        <v>6100991.887860597</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3844,13 +4530,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9475139.409440774</v>
+        <v>18281953.31192198</v>
       </c>
       <c r="C11">
-        <v>4216275.542177245</v>
+        <v>8395533.658027036</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3858,13 +4544,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12741443.62944086</v>
+        <v>26004271.62970455</v>
       </c>
       <c r="C12">
-        <v>5323967.3375867</v>
+        <v>10941241.62740099</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3872,13 +4558,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>17910968.45011526</v>
+        <v>34297116.12213809</v>
       </c>
       <c r="C13">
-        <v>7267969.752628112</v>
+        <v>13892993.98889234</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3886,13 +4572,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>22161314.93780605</v>
+        <v>43175690.6797592</v>
       </c>
       <c r="C14">
-        <v>8733796.106119594</v>
+        <v>17075650.17101801</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3900,13 +4586,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>25786217.36157207</v>
+        <v>49541014.71980713</v>
       </c>
       <c r="C15">
-        <v>9974528.436837478</v>
+        <v>19148658.59158791</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3914,13 +4600,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>29714604.39095216</v>
+        <v>58571277.43518346</v>
       </c>
       <c r="C16">
-        <v>11777461.32536936</v>
+        <v>22278238.83583365</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3928,13 +4614,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>32930761.34834479</v>
+        <v>65200956.26164271</v>
       </c>
       <c r="C17">
-        <v>12583121.67571795</v>
+        <v>25236914.67028643</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3942,13 +4628,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>32545873.68003887</v>
+        <v>64507905.34233964</v>
       </c>
       <c r="C18">
-        <v>12783216.13370959</v>
+        <v>26192776.39192691</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3956,13 +4642,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>32754640.62289314</v>
+        <v>67108366.83738914</v>
       </c>
       <c r="C19">
-        <v>13538504.40098102</v>
+        <v>28550298.17864896</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3970,13 +4656,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>33223219.61330959</v>
+        <v>66444029.8221231</v>
       </c>
       <c r="C20">
-        <v>14061661.25739524</v>
+        <v>29984965.43520635</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3984,13 +4670,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>42779423.01451378</v>
+        <v>66304330.87823551</v>
       </c>
       <c r="C21">
-        <v>19796072.82461399</v>
+        <v>31769096.92123365</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3998,13 +4684,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>36407192.37902652</v>
+        <v>59974467.75516645</v>
       </c>
       <c r="C22">
-        <v>18206052.96775453</v>
+        <v>30073501.39027973</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4012,13 +4698,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>34277019.29268774</v>
+        <v>60579400.61128877</v>
       </c>
       <c r="C23">
-        <v>17688262.42311664</v>
+        <v>31695226.92746793</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4026,13 +4712,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>36996564.75540879</v>
+        <v>47904891.23004863</v>
       </c>
       <c r="C24">
-        <v>19864363.1416293</v>
+        <v>25930687.56163349</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4040,13 +4726,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>30257245.47366485</v>
+        <v>39309988.77055851</v>
       </c>
       <c r="C25">
-        <v>16834881.4073691</v>
+        <v>21879502.69947037</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4054,13 +4740,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>44787909.68535742</v>
+        <v>46124971.92688359</v>
       </c>
       <c r="C26">
-        <v>25590611.13229692</v>
+        <v>26393738.90112785</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4068,13 +4754,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>38853519.77992382</v>
+        <v>41908309.32787011</v>
       </c>
       <c r="C27">
-        <v>22550003.52000077</v>
+        <v>24362295.96578243</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4082,13 +4768,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>35752995.58186034</v>
+        <v>40899827.13728292</v>
       </c>
       <c r="C28">
-        <v>21095601.27156162</v>
+        <v>24110213.17836561</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4096,13 +4782,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>43495007.39830974</v>
+        <v>43495008.20394482</v>
       </c>
       <c r="C29">
-        <v>26022555.73460562</v>
+        <v>26022555.8473646</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4158,6 +4844,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -4168,7 +4952,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4190,13 +4974,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>156578.2049761143</v>
+        <v>282147.6166670704</v>
       </c>
       <c r="C2">
-        <v>194355.228954041</v>
+        <v>349554.3822520871</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4204,13 +4988,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>340462.3732974492</v>
+        <v>566799.9077147741</v>
       </c>
       <c r="C3">
-        <v>237793.3138345969</v>
+        <v>469731.2374080605</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4218,13 +5002,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>485395.4352386357</v>
+        <v>899657.5452086953</v>
       </c>
       <c r="C4">
-        <v>320926.3257691422</v>
+        <v>602510.2028967922</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4232,13 +5016,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>607556.4127396335</v>
+        <v>1215729.510703191</v>
       </c>
       <c r="C5">
-        <v>443519.1324738828</v>
+        <v>892572.0683680344</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4246,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>858411.4548427321</v>
+        <v>1704748.760951722</v>
       </c>
       <c r="C6">
-        <v>729484.4689326932</v>
+        <v>1457820.733692443</v>
       </c>
       <c r="D6">
-        <v>83</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4260,13 +5044,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1236646.078153373</v>
+        <v>2422272.86208318</v>
       </c>
       <c r="C7">
-        <v>1148455.884883978</v>
+        <v>2260631.846570475</v>
       </c>
       <c r="D7">
-        <v>102</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4274,13 +5058,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1990658.252608213</v>
+        <v>3569832.510467558</v>
       </c>
       <c r="C8">
-        <v>1840169.56432684</v>
+        <v>3385430.923525084</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4288,13 +5072,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3502145.763668741</v>
+        <v>6348403.606214939</v>
       </c>
       <c r="C9">
-        <v>2639038.238210796</v>
+        <v>4924938.361695477</v>
       </c>
       <c r="D9">
-        <v>158</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4302,13 +5086,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6562852.722127706</v>
+        <v>11902451.49350993</v>
       </c>
       <c r="C10">
-        <v>3711818.747227793</v>
+        <v>6741846.59251448</v>
       </c>
       <c r="D10">
-        <v>186</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4316,13 +5100,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9799080.627277676</v>
+        <v>18924085.52734218</v>
       </c>
       <c r="C11">
-        <v>4506977.913260894</v>
+        <v>8838072.62510162</v>
       </c>
       <c r="D11">
-        <v>127</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4330,13 +5114,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14815976.40031157</v>
+        <v>28031890.68824106</v>
       </c>
       <c r="C12">
-        <v>6320060.267827649</v>
+        <v>11965934.7023719</v>
       </c>
       <c r="D12">
-        <v>141</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4344,13 +5128,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>19126447.00135165</v>
+        <v>37399558.55244112</v>
       </c>
       <c r="C13">
-        <v>7812024.532906013</v>
+        <v>15304258.44325736</v>
       </c>
       <c r="D13">
-        <v>138</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4358,13 +5142,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>23457235.57049371</v>
+        <v>46589383.27286868</v>
       </c>
       <c r="C14">
-        <v>9270107.225959448</v>
+        <v>18440966.2381288</v>
       </c>
       <c r="D14">
-        <v>107</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4372,13 +5156,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>29931319.35961516</v>
+        <v>56391795.81917094</v>
       </c>
       <c r="C15">
-        <v>11525064.2487281</v>
+        <v>21549639.43253125</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4386,13 +5170,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>35438912.91987771</v>
+        <v>66317827.02855049</v>
       </c>
       <c r="C16">
-        <v>13334735.29281273</v>
+        <v>24666068.90225184</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4400,13 +5184,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40537302.20000112</v>
+        <v>73771394.60244419</v>
       </c>
       <c r="C17">
-        <v>15439278.04287645</v>
+        <v>27479150.0501179</v>
       </c>
       <c r="D17">
-        <v>67</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4414,13 +5198,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>47826872.01976351</v>
+        <v>83258875.81750338</v>
       </c>
       <c r="C18">
-        <v>18868361.07863268</v>
+        <v>31975163.94419459</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4428,13 +5212,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>45288457.42762719</v>
+        <v>87755111.42661518</v>
       </c>
       <c r="C19">
-        <v>18555712.67530232</v>
+        <v>35655210.2990981</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4442,13 +5226,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>45971821.80067544</v>
+        <v>86593508.3592893</v>
       </c>
       <c r="C20">
-        <v>20029347.71424013</v>
+        <v>37391855.75918285</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4456,13 +5240,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>48831943.71244406</v>
+        <v>83250053.60570085</v>
       </c>
       <c r="C21">
-        <v>22818134.82704282</v>
+        <v>38337753.12581784</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4470,13 +5254,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>47489351.57631879</v>
+        <v>80191767.07344498</v>
       </c>
       <c r="C22">
-        <v>22823939.25005367</v>
+        <v>39634610.43601667</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4484,13 +5268,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>29694486.64918832</v>
+        <v>78437158.67812166</v>
       </c>
       <c r="C23">
-        <v>15313442.7867533</v>
+        <v>40885512.56254694</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4498,13 +5282,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>67673890.01091924</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>36271880.51873001</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4512,13 +5296,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>55619645.7048585</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>30843100.72138045</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4526,13 +5310,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>45988556.69137212</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>25924605.33692961</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4540,13 +5324,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>43066137.15243824</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>24725508.83236095</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4554,13 +5338,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>27892471.73748445</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>16286165.51834802</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4630,6 +5414,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -4640,7 +5522,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4662,13 +5544,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>243233.7657699051</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>301376.6936791001</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4676,13 +5558,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>354806.2951187267</v>
+        <v>540314.0653329324</v>
       </c>
       <c r="C3">
-        <v>228909.5317571296</v>
+        <v>472532.7231492241</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4690,13 +5572,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>450844.656220851</v>
+        <v>861081.2972351074</v>
       </c>
       <c r="C4">
-        <v>296818.7834206021</v>
+        <v>582959.490174419</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4704,13 +5586,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>550075.3085004312</v>
+        <v>1208512.167213726</v>
       </c>
       <c r="C5">
-        <v>389311.821565535</v>
+        <v>883904.0629318379</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4718,13 +5600,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>881516.0825316889</v>
+        <v>1689476.889181953</v>
       </c>
       <c r="C6">
-        <v>751528.5331180528</v>
+        <v>1437174.707897156</v>
       </c>
       <c r="D6">
-        <v>101</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4732,13 +5614,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1222136.924228609</v>
+        <v>2396099.594195219</v>
       </c>
       <c r="C7">
-        <v>1135356.699199081</v>
+        <v>2223736.211512323</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4746,13 +5628,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1478505.593609754</v>
+        <v>3332761.790543062</v>
       </c>
       <c r="C8">
-        <v>1424525.23051899</v>
+        <v>3191447.503551846</v>
       </c>
       <c r="D8">
-        <v>86</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4760,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2878936.3165277</v>
+        <v>5718716.557617616</v>
       </c>
       <c r="C9">
-        <v>2259238.927938364</v>
+        <v>4720328.212344436</v>
       </c>
       <c r="D9">
-        <v>111</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4774,13 +5656,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4333786.27513992</v>
+        <v>10663931.35316028</v>
       </c>
       <c r="C10">
-        <v>2970055.276686801</v>
+        <v>6457244.101991875</v>
       </c>
       <c r="D10">
-        <v>131</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4788,13 +5670,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8267892.942243155</v>
+        <v>17212877.51080828</v>
       </c>
       <c r="C11">
-        <v>4135467.671620959</v>
+        <v>8516767.9992668</v>
       </c>
       <c r="D11">
-        <v>139</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4802,13 +5684,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12334716.32800969</v>
+        <v>24820254.27768432</v>
       </c>
       <c r="C12">
-        <v>5446189.058755805</v>
+        <v>10951587.06294945</v>
       </c>
       <c r="D12">
-        <v>135</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4816,13 +5698,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>17213883.56841176</v>
+        <v>33273142.5406489</v>
       </c>
       <c r="C13">
-        <v>7200932.28855746</v>
+        <v>13931635.97661175</v>
       </c>
       <c r="D13">
-        <v>138</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4830,13 +5712,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>24112603.96896531</v>
+        <v>42413447.58232477</v>
       </c>
       <c r="C14">
-        <v>9714467.254468163</v>
+        <v>17092224.3613391</v>
       </c>
       <c r="D14">
-        <v>183</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4844,13 +5726,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>29770976.63221837</v>
+        <v>50027722.09083486</v>
       </c>
       <c r="C15">
-        <v>11582048.19673686</v>
+        <v>19455286.73463564</v>
       </c>
       <c r="D15">
-        <v>167</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4858,13 +5740,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>31913956.44410716</v>
+        <v>61275130.49869417</v>
       </c>
       <c r="C16">
-        <v>11918922.5531499</v>
+        <v>22992632.76244873</v>
       </c>
       <c r="D16">
-        <v>69</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4872,13 +5754,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>37877923.26801068</v>
+        <v>74794389.87968597</v>
       </c>
       <c r="C17">
-        <v>14370103.48609507</v>
+        <v>27613770.22671441</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4886,13 +5768,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>44812663.14112504</v>
+        <v>83779769.6357457</v>
       </c>
       <c r="C18">
-        <v>17353311.95520962</v>
+        <v>31372077.31090729</v>
       </c>
       <c r="D18">
-        <v>64</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4900,13 +5782,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>50408372.68570067</v>
+        <v>86781428.9735581</v>
       </c>
       <c r="C19">
-        <v>20760359.80479617</v>
+        <v>34007426.61657944</v>
       </c>
       <c r="D19">
-        <v>68</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4914,13 +5796,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>57326740.29725742</v>
+        <v>89105930.27465652</v>
       </c>
       <c r="C20">
-        <v>24314063.24672048</v>
+        <v>36942458.80455695</v>
       </c>
       <c r="D20">
-        <v>88</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4928,13 +5810,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>53478517.0266767</v>
+        <v>84246700.26777278</v>
       </c>
       <c r="C21">
-        <v>23668224.55098251</v>
+        <v>37254800.0438377</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4942,13 +5824,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>38321178.42977503</v>
+        <v>76324576.37080635</v>
       </c>
       <c r="C22">
-        <v>17551153.21088803</v>
+        <v>35768488.35363521</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4956,13 +5838,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>40412922.42434352</v>
+        <v>68308143.18093951</v>
       </c>
       <c r="C23">
-        <v>19919626.17705255</v>
+        <v>33867761.2943547</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4970,13 +5852,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>28651101.13268575</v>
+        <v>54070944.42140254</v>
       </c>
       <c r="C24">
-        <v>15177476.12704019</v>
+        <v>27789610.25572801</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4984,13 +5866,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>48039178.71782524</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>25627501.31324644</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4998,13 +5880,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>20402215.99273007</v>
+        <v>41508150.12850832</v>
       </c>
       <c r="C26">
-        <v>10948310.35958682</v>
+        <v>22962656.94712375</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5012,13 +5894,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>35515438.26524436</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>18396950.67252484</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5102,6 +5984,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -5112,7 +6092,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5134,13 +6114,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>221469.7422742777</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>274096.9447291209</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5148,13 +6128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>281889.4387108693</v>
+        <v>524896.4301755952</v>
       </c>
       <c r="C3">
-        <v>220581.9057197424</v>
+        <v>490956.2025343982</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5162,13 +6142,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>529051.0277805816</v>
+        <v>874806.0189187089</v>
       </c>
       <c r="C4">
-        <v>350304.3069680193</v>
+        <v>588228.1239753307</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5176,13 +6156,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>583201.3055950453</v>
+        <v>1192973.040388008</v>
       </c>
       <c r="C5">
-        <v>423225.6215105132</v>
+        <v>865220.9571071068</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5190,13 +6170,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>793430.3099344115</v>
+        <v>1682681.774585997</v>
       </c>
       <c r="C6">
-        <v>666744.0699709031</v>
+        <v>1415801.024262382</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5204,13 +6184,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1060614.02145488</v>
+        <v>2328568.325986059</v>
       </c>
       <c r="C7">
-        <v>970995.598755399</v>
+        <v>2142986.90724584</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5218,13 +6198,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1513448.481810249</v>
+        <v>3174393.502540541</v>
       </c>
       <c r="C8">
-        <v>1454150.91041684</v>
+        <v>3048810.977482317</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5232,13 +6212,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2523731.20882684</v>
+        <v>4997829.815925627</v>
       </c>
       <c r="C9">
-        <v>2172597.708849538</v>
+        <v>4311885.75581652</v>
       </c>
       <c r="D9">
-        <v>112</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5246,13 +6226,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3850241.531033867</v>
+        <v>8538557.670687605</v>
       </c>
       <c r="C10">
-        <v>2839079.696857538</v>
+        <v>5762082.134302882</v>
       </c>
       <c r="D10">
-        <v>135</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5260,13 +6240,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6977669.405587189</v>
+        <v>13541900.98817559</v>
       </c>
       <c r="C11">
-        <v>3680063.255917381</v>
+        <v>7373099.903596565</v>
       </c>
       <c r="D11">
-        <v>113</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5274,13 +6254,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9729858.483642027</v>
+        <v>18819391.7758191</v>
       </c>
       <c r="C12">
-        <v>4639586.147232672</v>
+        <v>9201426.846234426</v>
       </c>
       <c r="D12">
-        <v>104</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5288,13 +6268,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11865449.99093045</v>
+        <v>24733885.62908654</v>
       </c>
       <c r="C13">
-        <v>5368229.951625988</v>
+        <v>11208252.68027205</v>
       </c>
       <c r="D13">
-        <v>85</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5302,13 +6282,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>15355342.59770043</v>
+        <v>30528000.21625634</v>
       </c>
       <c r="C14">
-        <v>6495346.529299771</v>
+        <v>12988688.89938442</v>
       </c>
       <c r="D14">
-        <v>74</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5316,13 +6296,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>20506530.37114997</v>
+        <v>37118369.88935355</v>
       </c>
       <c r="C15">
-        <v>8167255.311338871</v>
+        <v>15011788.50644207</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>921</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5330,13 +6310,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>20173930.21625292</v>
+        <v>44204980.90126212</v>
       </c>
       <c r="C16">
-        <v>7857883.124493758</v>
+        <v>17157484.44558864</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5344,13 +6324,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>22565986.70182588</v>
+        <v>57547366.47092647</v>
       </c>
       <c r="C17">
-        <v>8643615.462521922</v>
+        <v>21218782.71862903</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5358,13 +6338,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>26213781.74615095</v>
+        <v>64660262.50667509</v>
       </c>
       <c r="C18">
-        <v>9398930.260928074</v>
+        <v>23385592.40104936</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5372,13 +6352,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>35562992.6242159</v>
+        <v>70808566.67253451</v>
       </c>
       <c r="C19">
-        <v>12921239.16522773</v>
+        <v>25511864.02689262</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5386,13 +6366,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>40549006.35292011</v>
+        <v>72959199.93178186</v>
       </c>
       <c r="C20">
-        <v>14531884.51552877</v>
+        <v>26703306.60502235</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5400,13 +6380,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>38557821.49997489</v>
+        <v>68263728.97733396</v>
       </c>
       <c r="C21">
-        <v>14915259.24491982</v>
+        <v>26177092.61491644</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5414,13 +6394,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>37467115.95473104</v>
+        <v>64797604.98788729</v>
       </c>
       <c r="C22">
-        <v>14570036.68114612</v>
+        <v>25925791.82371375</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5428,13 +6408,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>31261047.79574832</v>
+        <v>57012110.83160437</v>
       </c>
       <c r="C23">
-        <v>12237706.83665575</v>
+        <v>23476708.07670362</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5442,13 +6422,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>34913118.44395591</v>
+        <v>56169119.91872801</v>
       </c>
       <c r="C24">
-        <v>14913706.27657478</v>
+        <v>24695606.33590635</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5456,13 +6436,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>23725645.96466849</v>
+        <v>50223237.84347986</v>
       </c>
       <c r="C25">
-        <v>10308852.29961976</v>
+        <v>21236985.94236006</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5470,13 +6450,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>26716645.34241856</v>
+        <v>44758312.08147839</v>
       </c>
       <c r="C26">
-        <v>8566548.078695793</v>
+        <v>19553213.50856118</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5484,13 +6464,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>42808109.25964264</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>20693483.6014936</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5498,13 +6478,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>24613879.4890611</v>
+        <v>38691771.18257188</v>
       </c>
       <c r="C28">
-        <v>12275404.82650478</v>
+        <v>20270232.31399127</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5512,13 +6492,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>22830842.66568718</v>
+        <v>34728837.84730693</v>
       </c>
       <c r="C29">
-        <v>12952529.59411374</v>
+        <v>18016706.01392509</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5526,13 +6506,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>23374382.01665919</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>12949463.69930568</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5574,6 +6554,104 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -5584,7 +6662,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5606,13 +6684,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>224932.6109159549</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>278243.6941570696</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5620,13 +6698,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>270292.3377383246</v>
+        <v>518287.8384240356</v>
       </c>
       <c r="C3">
-        <v>206565.062253294</v>
+        <v>508200.7032944218</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5634,13 +6712,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>464311.3271311001</v>
+        <v>883067.9525772874</v>
       </c>
       <c r="C4">
-        <v>309134.5377644198</v>
+        <v>589164.0922876468</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5648,13 +6726,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>627805.0091139359</v>
+        <v>1224099.945520393</v>
       </c>
       <c r="C5">
-        <v>468638.1779800103</v>
+        <v>888423.3114693386</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5662,13 +6740,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>801728.492749552</v>
+        <v>1671320.638965803</v>
       </c>
       <c r="C6">
-        <v>669003.9667605564</v>
+        <v>1398280.753037914</v>
       </c>
       <c r="D6">
-        <v>83</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5676,13 +6754,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1151301.719064748</v>
+        <v>2343477.710467837</v>
       </c>
       <c r="C7">
-        <v>1056058.853520656</v>
+        <v>2157731.86780117</v>
       </c>
       <c r="D7">
-        <v>105</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5690,13 +6768,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3152507.951487436</v>
+        <v>3729579.906128068</v>
       </c>
       <c r="C8">
-        <v>1712346.755823135</v>
+        <v>3064774.55555148</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5704,13 +6782,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2216250.174423018</v>
+        <v>5186823.553122915</v>
       </c>
       <c r="C9">
-        <v>2009248.923667034</v>
+        <v>4269229.825692599</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5718,13 +6796,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3904240.805807568</v>
+        <v>8843842.594372921</v>
       </c>
       <c r="C10">
-        <v>2730044.827622846</v>
+        <v>5776059.390230336</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5732,13 +6810,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7336198.380719809</v>
+        <v>15112860.97081233</v>
       </c>
       <c r="C11">
-        <v>3855474.656971233</v>
+        <v>7770179.717882158</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5746,13 +6824,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10686392.86387055</v>
+        <v>20717636.43120692</v>
       </c>
       <c r="C12">
-        <v>4864267.331353636</v>
+        <v>9550213.646797564</v>
       </c>
       <c r="D12">
-        <v>97</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5760,13 +6838,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>13369335.59232997</v>
+        <v>27756450.3715114</v>
       </c>
       <c r="C13">
-        <v>5644986.697831796</v>
+        <v>12058742.9378218</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5774,13 +6852,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>19253336.60444998</v>
+        <v>37201432.95114251</v>
       </c>
       <c r="C14">
-        <v>7612591.430393388</v>
+        <v>15230899.78955602</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5788,13 +6866,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>22912288.75832505</v>
+        <v>45974339.85199915</v>
       </c>
       <c r="C15">
-        <v>8882229.608951086</v>
+        <v>18220426.8764921</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5802,13 +6880,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>24847289.05883041</v>
+        <v>55533410.34732287</v>
       </c>
       <c r="C16">
-        <v>9600441.592982221</v>
+        <v>21245002.46756021</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5816,13 +6894,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>27316205.212007</v>
+        <v>64810541.38632558</v>
       </c>
       <c r="C17">
-        <v>10368414.64886895</v>
+        <v>24368947.87466295</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>962</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5830,13 +6908,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>32095307.61276302</v>
+        <v>73514045.85834849</v>
       </c>
       <c r="C18">
-        <v>12051360.68813253</v>
+        <v>27482584.20753754</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5844,13 +6922,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>35930725.08720354</v>
+        <v>80466019.33614686</v>
       </c>
       <c r="C19">
-        <v>14178491.90681169</v>
+        <v>30500364.22527096</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5858,13 +6936,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>45262042.86818501</v>
+        <v>84248580.0526346</v>
       </c>
       <c r="C20">
-        <v>18784016.78777878</v>
+        <v>33509230.74494589</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5872,13 +6950,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>40078003.83488077</v>
+        <v>82270952.22453064</v>
       </c>
       <c r="C21">
-        <v>15932430.25330997</v>
+        <v>33846100.6335311</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5886,13 +6964,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>32590522.38735273</v>
+        <v>77750456.76785779</v>
       </c>
       <c r="C22">
-        <v>13961108.24391135</v>
+        <v>34028139.32560552</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5900,13 +6978,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>35830203.22501635</v>
+        <v>76205904.69769411</v>
       </c>
       <c r="C23">
-        <v>17294946.14385894</v>
+        <v>34993856.31624202</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5914,13 +6992,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>35058502.44104032</v>
+        <v>71688535.9258827</v>
       </c>
       <c r="C24">
-        <v>16653404.31400468</v>
+        <v>34362846.66732034</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5928,13 +7006,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>31354382.95339398</v>
+        <v>65238903.52304638</v>
       </c>
       <c r="C25">
-        <v>16895770.58893576</v>
+        <v>32390522.05564914</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5942,13 +7020,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>31438041.26742708</v>
+        <v>58661338.72066459</v>
       </c>
       <c r="C26">
-        <v>16921670.3164355</v>
+        <v>30750812.30387211</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5956,13 +7034,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>22501477.96630688</v>
+        <v>50813496.64643055</v>
       </c>
       <c r="C27">
-        <v>12865808.56954286</v>
+        <v>26590792.79982743</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5970,13 +7048,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>22940338.90883223</v>
+        <v>49982602.68087438</v>
       </c>
       <c r="C28">
-        <v>13179405.80991028</v>
+        <v>28072446.40894327</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5984,13 +7062,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>45396144.1473401</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>26171016.17083225</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5998,13 +7076,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>44417668.12695388</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>25867255.39576451</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6012,13 +7090,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>43657412.37141461</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>25484142.01997909</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6026,13 +7104,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>35809370.54343012</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>20952373.12522186</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6040,12 +7118,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>25098290.86873478</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>15124497.07313887</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>26292675.88896094</v>
+      </c>
+      <c r="C34">
+        <v>16328955.74773437</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>36942195.68122576</v>
+      </c>
+      <c r="C35">
+        <v>22898801.40441791</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>26740296.53093789</v>
+      </c>
+      <c r="C36">
+        <v>16918483.52082729</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
@@ -6056,7 +7232,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6078,13 +7254,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>232699.9239918544</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>288222.7768325025</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6092,13 +7268,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>257231.4475978156</v>
+        <v>531664.7348622963</v>
       </c>
       <c r="C3">
-        <v>250077.3727603455</v>
+        <v>512681.8901723675</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6106,13 +7282,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>519452.6147329991</v>
+        <v>906566.5089129808</v>
       </c>
       <c r="C4">
-        <v>337006.322909099</v>
+        <v>607956.0257494715</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6120,13 +7296,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>699053.318315167</v>
+        <v>1262749.659769775</v>
       </c>
       <c r="C5">
-        <v>507012.8385019805</v>
+        <v>917486.8977999248</v>
       </c>
       <c r="D5">
-        <v>121</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6134,13 +7310,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>962225.5867360497</v>
+        <v>2411174.514369397</v>
       </c>
       <c r="C6">
-        <v>819814.0635455119</v>
+        <v>1599643.474750521</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6148,13 +7324,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1259554.581164206</v>
+        <v>2543385.58078264</v>
       </c>
       <c r="C7">
-        <v>1173517.06021964</v>
+        <v>2359989.399323814</v>
       </c>
       <c r="D7">
-        <v>138</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6162,13 +7338,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1779209.35560273</v>
+        <v>3944091.705711885</v>
       </c>
       <c r="C8">
-        <v>1682653.237783586</v>
+        <v>3471770.982852472</v>
       </c>
       <c r="D8">
-        <v>145</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6176,13 +7352,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3468658.312102756</v>
+        <v>7471739.354903379</v>
       </c>
       <c r="C9">
-        <v>2640270.506022193</v>
+        <v>5197167.198484382</v>
       </c>
       <c r="D9">
-        <v>188</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6190,13 +7366,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7145052.748216333</v>
+        <v>14752896.49429286</v>
       </c>
       <c r="C10">
-        <v>3837516.562906511</v>
+        <v>7736519.857633278</v>
       </c>
       <c r="D10">
-        <v>218</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6204,13 +7380,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11728693.18682747</v>
+        <v>25090191.41078816</v>
       </c>
       <c r="C11">
-        <v>5106372.888115657</v>
+        <v>10962008.32686893</v>
       </c>
       <c r="D11">
-        <v>168</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6218,13 +7394,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>17121009.23969151</v>
+        <v>36532926.68224309</v>
       </c>
       <c r="C12">
-        <v>7010992.674192737</v>
+        <v>14930796.65384356</v>
       </c>
       <c r="D12">
-        <v>157</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6232,13 +7408,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>20621191.24905802</v>
+        <v>48156394.71339454</v>
       </c>
       <c r="C13">
-        <v>8325498.857083507</v>
+        <v>19423007.07122641</v>
       </c>
       <c r="D13">
-        <v>118</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6246,13 +7422,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>27471688.74342741</v>
+        <v>59646211.87568503</v>
       </c>
       <c r="C14">
-        <v>11021325.6251142</v>
+        <v>24072490.86163786</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6260,13 +7436,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>34201636.32028135</v>
+        <v>71619810.68745974</v>
       </c>
       <c r="C15">
-        <v>13690687.21885601</v>
+        <v>29085668.66559011</v>
       </c>
       <c r="D15">
-        <v>125</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6274,13 +7450,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>35325804.15804592</v>
+        <v>81905185.01281352</v>
       </c>
       <c r="C16">
-        <v>14572620.50557739</v>
+        <v>33739710.37921602</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6288,13 +7464,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40613270.57680774</v>
+        <v>91100871.95759451</v>
       </c>
       <c r="C17">
-        <v>16562500.54771676</v>
+        <v>38340418.66127167</v>
       </c>
       <c r="D17">
-        <v>73</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6302,13 +7478,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>40516968.03032029</v>
+        <v>97950321.45858146</v>
       </c>
       <c r="C18">
-        <v>17661760.7088653</v>
+        <v>42255615.19820441</v>
       </c>
       <c r="D18">
-        <v>54</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6316,13 +7492,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>40949739.96736594</v>
+        <v>101119681.6037579</v>
       </c>
       <c r="C19">
-        <v>18244753.88972223</v>
+        <v>45614260.2368615</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6330,13 +7506,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>43818372.02733646</v>
+        <v>102058735.2525549</v>
       </c>
       <c r="C20">
-        <v>20275644.729364</v>
+        <v>47970989.78698719</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6344,13 +7520,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>45623242.16145327</v>
+        <v>101548794.1177472</v>
       </c>
       <c r="C21">
-        <v>22377964.12509005</v>
+        <v>49943929.38626427</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6358,13 +7534,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>44384599.98206342</v>
+        <v>98906582.46520253</v>
       </c>
       <c r="C22">
-        <v>22283636.87741489</v>
+        <v>50460894.30999967</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6372,13 +7548,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>40682680.21838034</v>
+        <v>94807558.1648442</v>
       </c>
       <c r="C23">
-        <v>20745994.37592934</v>
+        <v>49533670.05317531</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6386,13 +7562,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>44918849.69716378</v>
+        <v>91240647.33816397</v>
       </c>
       <c r="C24">
-        <v>24268182.39458889</v>
+        <v>49052295.97005637</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6400,13 +7576,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>39461991.13876426</v>
+        <v>85288656.75062069</v>
       </c>
       <c r="C25">
-        <v>21768014.99635254</v>
+        <v>47095641.10146324</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6414,13 +7590,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>36736695.92575752</v>
+        <v>79581856.78298625</v>
       </c>
       <c r="C26">
-        <v>20779189.53397546</v>
+        <v>45009428.61687481</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6428,13 +7604,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>21740698.0689351</v>
+        <v>69960203.15523241</v>
       </c>
       <c r="C27">
-        <v>12235110.2090274</v>
+        <v>40317693.91452187</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6442,13 +7618,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>23344161.05355115</v>
+        <v>64495458.86291569</v>
       </c>
       <c r="C28">
-        <v>13509208.49426315</v>
+        <v>37542631.88621762</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6456,13 +7632,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>23184734.52353197</v>
+        <v>65111371.13365443</v>
       </c>
       <c r="C29">
-        <v>11839171.79381492</v>
+        <v>39054166.20477314</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6470,13 +7646,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>57354580.06574269</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>34338298.09107116</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6484,13 +7660,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>45284366.90545832</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>27452219.28557454</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6498,13 +7674,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>41892021.10106269</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>26294239.54688752</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6512,12 +7688,110 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>31179122.92533378</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>19598675.97212949</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>35351901.01154602</v>
+      </c>
+      <c r="C34">
+        <v>22684256.85068079</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>33970031.41814093</v>
+      </c>
+      <c r="C35">
+        <v>20894200.44428329</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35290683.29186518</v>
+      </c>
+      <c r="C36">
+        <v>20008787.93030338</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27764743.38180294</v>
+      </c>
+      <c r="C37">
+        <v>17882050.46050369</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
